--- a/Bill_of_materials.xlsx
+++ b/Bill_of_materials.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bomen\Documenten\School\PXL\2EAI\semester_2\ElektronischeSystemen2\Elektronische_systemen_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gijsj\Documents\1_EAI\Github\Elektronische-systemen-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{679A7F8A-BDA8-49E2-A6AE-0BACFCACB4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCFC092-9F56-477E-ACF4-A8F625603BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{23BF4C88-1078-42E7-9D0C-D5A36D1001D8}"/>
+    <workbookView minimized="1" xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="9072" xr2:uid="{23BF4C88-1078-42E7-9D0C-D5A36D1001D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -318,17 +318,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -648,7 +648,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,15 +669,15 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -967,7 +967,7 @@
         <v>35</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="9"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -985,15 +985,15 @@
       <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -1021,15 +1021,15 @@
       <c r="C19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -1041,7 +1041,7 @@
       <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="7"/>
@@ -1061,7 +1061,7 @@
       <c r="C21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="10" t="s">
         <v>47</v>
       </c>
       <c r="E21" s="7"/>
@@ -1081,15 +1081,15 @@
       <c r="C22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -1101,15 +1101,15 @@
       <c r="C23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
@@ -1175,25 +1175,25 @@
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
@@ -1418,11 +1418,18 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D48:J48"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="D45:J45"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="D47:J47"/>
     <mergeCell ref="D36:J36"/>
     <mergeCell ref="D25:J25"/>
     <mergeCell ref="D26:J26"/>
@@ -1435,18 +1442,11 @@
     <mergeCell ref="D33:J33"/>
     <mergeCell ref="D34:J34"/>
     <mergeCell ref="D35:J35"/>
-    <mergeCell ref="D48:J48"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="D45:J45"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D17:J17"/>
     <mergeCell ref="D18:J18"/>
     <mergeCell ref="D19:J19"/>
     <mergeCell ref="D20:J20"/>
